--- a/medicine/Sexualité et sexologie/Humiliation_érotique/Humiliation_érotique.xlsx
+++ b/medicine/Sexualité et sexologie/Humiliation_érotique/Humiliation_érotique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Humiliation_%C3%A9rotique</t>
+          <t>Humiliation_érotique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’humiliation érotique est une pratique consensuelle de l'humiliation psychologique dans un contexte sexuel, durant laquelle une personne éprouve un plaisir érotique provenant de sentiments d’humiliation et de soumission, souvent (mais pas toujours) en conjonction avec la stimulation sexuelle de l'un des deux partenaires durant l'activité. L'humiliation n'est pas nécessairement sexuelle ; comme pour la plupart des activités sexuelles, le sentiment est souvent recherché, sans que la nature de l'activité ne soit le plus important. Elle peut être verbale ou physique, et peut également être privée ou publique. Souvent, elle peut devenir ritualisée, et comme pour la plupart des stimulations sexuelles être évoquée par internet ou téléphone. La distinction entre l'humiliation et le fait d'être dominé provient des différents plaisirs que l'individu éprouve ; seules les activités variées changent ce fait.
-Certaines fantaisies et fascination de l'humiliation érotique font partie du sadomasochisme (SM) ou autre jeu de rôle sexuel, et ont relativement été illustrés[1]. L'humiliation peut cependant être amenée à un but dans lequel elle devient émotionnellement ou psychologiquement affligeante pour un ou plusieurs partenaires, et spécialement dans le domaine de l'humiliation publique. L'humiliation érotique peut devenir dangereuse et c'est pour cette raison que certaines personnes considèrent qu'il est important de fixer des limites et d'utiliser un « safeword ».
+Certaines fantaisies et fascination de l'humiliation érotique font partie du sadomasochisme (SM) ou autre jeu de rôle sexuel, et ont relativement été illustrés. L'humiliation peut cependant être amenée à un but dans lequel elle devient émotionnellement ou psychologiquement affligeante pour un ou plusieurs partenaires, et spécialement dans le domaine de l'humiliation publique. L'humiliation érotique peut devenir dangereuse et c'est pour cette raison que certaines personnes considèrent qu'il est important de fixer des limites et d'utiliser un « safeword ».
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Humiliation_%C3%A9rotique</t>
+          <t>Humiliation_érotique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Historique et terminologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le partenaire dominé est souvent nommé « soumis » ou « esclave » (sexuellement parlant), et le partenaire qui le domine est souvent nommé « dominant(e) » ou « maître(sse) » (bien que ces termes soient classiques concernant le rôle dominant/soumis et ne possèdent pas d'intérêt spécifique dans le domaine de l'humiliation) voire « dominatrix » (du côté professionnel).
-L'humiliation n'est pas pareille à celle évoquée dans la domination et soumission ; le partenaire dominé ne cherche pas nécessairement à exécuter les ordres imposés par son partenaire dominant. L'humiliation vient d'elle-même en tant que force sexuelle lorsque le dominé recherche l'humiliation par tous les moyens. Comme telle, elle est dérivée d'une lignée de paraphilies, en particulier le fétichisme du pied ou le fétichisme de la chaussure, la domination, la fessée, le bondage ainsi que d'autres styles BDSM. Elle peut devenir basique lorsque le désir d'embrasser ou de masser les pieds en tant que précurseur dans la relation se manifeste, ou dans les cas plus complexes, inclure des jeux de rôles privés ou publics. Elle peut également durer le temps d'une période ou durant une relation sérieuse. L'humiliation érotique peut également se tenir par des moqueries physiques ou psychologiques[2].
+L'humiliation n'est pas pareille à celle évoquée dans la domination et soumission ; le partenaire dominé ne cherche pas nécessairement à exécuter les ordres imposés par son partenaire dominant. L'humiliation vient d'elle-même en tant que force sexuelle lorsque le dominé recherche l'humiliation par tous les moyens. Comme telle, elle est dérivée d'une lignée de paraphilies, en particulier le fétichisme du pied ou le fétichisme de la chaussure, la domination, la fessée, le bondage ainsi que d'autres styles BDSM. Elle peut devenir basique lorsque le désir d'embrasser ou de masser les pieds en tant que précurseur dans la relation se manifeste, ou dans les cas plus complexes, inclure des jeux de rôles privés ou publics. Elle peut également durer le temps d'une période ou durant une relation sérieuse. L'humiliation érotique peut également se tenir par des moqueries physiques ou psychologiques.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Humiliation_%C3%A9rotique</t>
+          <t>Humiliation_érotique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Méthodes d'humiliation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe plusieurs pratiques pouvant être considérées comme signes précurseurs de l'humiliation. Certaines de ces pratiques sont basées sur l'abus verbal et d'autres sur l'aspect physique.
 Les aspects verbaux peuvent inclure :
-le rabaissement en tant que marchandise humaine (prostitué) ou animal (chien), humiliant ainsi l'individu, le forçant à manger de la nourriture pour les animaux et de boire dans une gamelle d'eau[3] ;
+le rabaissement en tant que marchandise humaine (prostitué) ou animal (chien), humiliant ainsi l'individu, le forçant à manger de la nourriture pour les animaux et de boire dans une gamelle d'eau ;
 le rabaissement verbal, tel que « esclave », « gamin », « fillette », « jouet » ;
 les insultes et abus verbaux, tels que « gros », « moche », « stupide », « bon(ne) à rien » ;
 les références dégradantes, telles que « pute », « salope, etc. ;
@@ -559,7 +575,7 @@
 la répétition forcée, durant laquelle le partenaire dominé est forcé de répéter les gestes que lui ordonne son partenaire dominant ;
 la flatterie forcée, durant laquelle le partenaire dominé est forcé de flatter tout ce que le partenaire dominant décide. Dans ce type d'humiliation, le dominé doit également flatter le physique et la personnalité du dominant ;
 la moquerie, la dérision et la ridiculisation ;
-d'être traité comme un enfant[4].
+d'être traité comme un enfant.
 Les aspects physiques et tangibles peuvent inclure :
 l'éjaculation faciale, le pet, la défécation, le crachat, les gifles ou l'ondinisme sur le corps du dominé, spécialement sur le visage ;
 l'exécution des tâches ingrates ou abusives, telles que nettoyer le sol ou les WC avec une brosse à dents ;
@@ -568,12 +584,12 @@
 des rituels spécifiques et d'affection à adopter. Cela inclut un comportement de servitude tel qu'allumer une cigarette, servir de cendrier, marcher à quatre pattes derrière le dominant, parler une fois l'ordre reçu, obéir et se prosterner devant le dominant lorsque les ordres sont donnés, manger les restes (parfois à même le sol), baisser la tête, ainsi que d'autres variétés de servitude telles que baiser/lécher les pieds, les bottes, l'anus, etc., du dominant pour exprimer la reconnaissance, l'obséquiosité, la honte, ou des émotions positives comme le bonheur ou l'excitation ;
 l'abolition de la liberté de circulation. Cela inclut une suppression totale de liberté de quitter la salle dans laquelle le dominant est présent sans permission, et peut également être interdit de quitter la maison, ou la salle, en général durant le temps d'esclavage ou de servitude ;
 les punitions pour une variété d'« infractions » ou désobéissances, telles que l'ordre d'aller au coin, la flagellation, les coups de fouet, rations réduites ou exercices forcés ;
-de passer au statut inférieur, comme les animaux (chien ou cheval) ou les bébés/enfants en bas âge[5],[3] ;
+de passer au statut inférieur, comme les animaux (chien ou cheval) ou les bébés/enfants en bas âge, ;
 de donner la fessée, fouetter, punir et autres activités sadomasochistes telles que le « bondage des testicules et torture du pénis » ;
-les prohibitions ou restrictions des vêtements, également en public. Un exemple commun pour les femmes est d'être mandatées sur ce qu'elles portent incluant les bikinis ou la lingerie. Pour les hommes, un sens de l'humiliation particulièrement puissant serait d'être forcé de se femelliser ou de se travestir[6],[7]. Les deux sexes peuvent s'attendre à être complètement nus, portant des objets décoratifs comme les colliers, menottes, etc. ;
+les prohibitions ou restrictions des vêtements, également en public. Un exemple commun pour les femmes est d'être mandatées sur ce qu'elles portent incluant les bikinis ou la lingerie. Pour les hommes, un sens de l'humiliation particulièrement puissant serait d'être forcé de se femelliser ou de se travestir,. Les deux sexes peuvent s'attendre à être complètement nus, portant des objets décoratifs comme les colliers, menottes, etc. ;
 l'utilisation de ceintures de chasteté ou autre accessoire restrictifs ;
 d'entre-mêler les cheveux ou poils du dominé avec une gomme à mâcher ;
-de porter des signes externes d'« appartenance », comme un collier[3] ;
+de porter des signes externes d'« appartenance », comme un collier ;
 d'être assisté des membres de famille, d'amis ou d'étrangers pour assister au mauvais traitement du soumis (humiliation publique) ;
 l'objectification érotique, dans laquelle le partenaire soumis incarne le rôle d'un objet, tel un trépied ;
 l'embarras ;
@@ -582,8 +598,8 @@
 de demander la permission d'un orgasme pendant une relation sexuelle ou une masturbation ;
 de forcer le port d'un bâillon et/ou certaines restrictions du corps ;
 la domination financière, dans laquelle habituellement le partenaire soumis (ou « esclave monétaire ») offre des cadeaux ou de l'argent à son dominant. La relation peut également être accompagnée d'autres actes sadomasochistes, mais cela doit être fictif et non intime entre les individus ;
-la masturbation forcée d'une manière humiliante[6] ;
-les sensations d'humiliation sont habituelles chez les personnes attirées par la clystérophilie[8].
+la masturbation forcée d'une manière humiliante ;
+les sensations d'humiliation sont habituelles chez les personnes attirées par la clystérophilie.
 Certaines humiliations sexuelles incluent de la douleur, mais la plupart de ces relations sont de loin attribuées au ridicule, à la moquerie, à la dégradation et à l'embarras.
 Les jeux de rôle sexuels peuvent ou non inclure une humiliation. Par exemple, un individu soumis incarnant le rôle d'un chien sait qu'il doit s'attendre à être traité comme tel par son dominant et posséder un statut social plus bas que celui de son maître, alors qu'un autre individu peut incarner ce rôle d'une manière simple sans aucun élément d'humiliation et simplement par expression.
 </t>
@@ -596,7 +612,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Humiliation_%C3%A9rotique</t>
+          <t>Humiliation_érotique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -614,7 +630,9 @@
           <t>Psychologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'humiliation touche en général directement ou indirectement les émotions d'un individu, souvent devenu sexualisé. C'est pour cette raison que le consentement et (paradoxalement) un haut degré de sécurité et de communication sont essentiels pour savoir si la relation est consentante et non abusive. Par exemple, un soumis peut apprécier d'être insulté, mais il ne peut pas forcément apprécier d'être émotionnellement dévasté en cas d'humiliation extrême et abusive dans d'autres cas. Le jeu de l'humiliation a également rapport avec le fétichisme sexuel, dans lequel les activités non sexuelles peuvent être exposées durant une humiliation comme durant l'exhibitionnisme dans laquelle les individus dominant et dominé attendent d'être assistés de témoins de la scène.
 </t>
@@ -627,7 +645,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Humiliation_%C3%A9rotique</t>
+          <t>Humiliation_érotique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -645,7 +663,9 @@
           <t>Humiliation en ligne</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'humiliation en ligne est le désir d'être sexuellement embarrassé via Internet. Cette pratique permet au soumis d'établir un contact avec des fétichistes du monde entier. Les méthodes communes d'une humiliation en ligne incluent :
 un pilori public ;
